--- a/Lab 4/BlackBodyRadiation/6.5VOLTS_115°_2DAMEDICION.xlsx
+++ b/Lab 4/BlackBodyRadiation/6.5VOLTS_115°_2DAMEDICION.xlsx
@@ -19,7 +19,7 @@
     <t>Intensidad relativa (%)</t>
   </si>
   <si>
-    <t>ángulo (rad)</t>
+    <t>Angulo (grad)</t>
   </si>
   <si>
     <t>69,06</t>
@@ -1277,7 +1277,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="38.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
